--- a/MetroNetwork_v3.xlsx
+++ b/MetroNetwork_v3.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19330"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{7A8EDBA1-6B22-46E8-8B59-2FAD54460B1E}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{30AF40E4-5D36-43C0-A939-CC4190790D76}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Nodes" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="130">
   <si>
     <t xml:space="preserve">NodeBasePopulation </t>
   </si>
@@ -200,9 +200,6 @@
     <t>2.0</t>
   </si>
   <si>
-    <t>1.0,2.0</t>
-  </si>
-  <si>
     <t>1.1,2.1</t>
   </si>
   <si>
@@ -338,9 +335,6 @@
     <t>Ending in core node?</t>
   </si>
   <si>
-    <t>1.5,1.0</t>
-  </si>
-  <si>
     <t>Morning</t>
   </si>
   <si>
@@ -404,13 +398,22 @@
     <t>23.0,24.0,25.0,26.1</t>
   </si>
   <si>
-    <t>10.0,20.0,21.0</t>
-  </si>
-  <si>
     <t>111.0,222.0,21.0</t>
   </si>
   <si>
     <t>222.0,111.0,21.0</t>
+  </si>
+  <si>
+    <t>2.0,2.5</t>
+  </si>
+  <si>
+    <t>3.0,3.5</t>
+  </si>
+  <si>
+    <t>10.0,20.0,30.0</t>
+  </si>
+  <si>
+    <t>11.0,21.0,31.0</t>
   </si>
 </sst>
 </file>
@@ -767,35 +770,35 @@
       <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1" t="s">
         <v>82</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>83</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>84</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>85</v>
-      </c>
-      <c r="E1" t="s">
-        <v>86</v>
       </c>
       <c r="F1" t="s">
         <v>0</v>
@@ -813,7 +816,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -842,7 +845,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -874,7 +877,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -906,7 +909,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -949,65 +952,65 @@
       <selection activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="25.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="16.5703125" customWidth="1"/>
+    <col min="6" max="6" width="17.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="25.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.88671875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B1" t="s">
         <v>87</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>88</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>89</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>90</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>91</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>92</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>93</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>94</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>95</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
+        <v>119</v>
+      </c>
+      <c r="L1" t="s">
         <v>96</v>
-      </c>
-      <c r="K1" t="s">
-        <v>121</v>
-      </c>
-      <c r="L1" t="s">
-        <v>97</v>
       </c>
       <c r="M1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -1021,7 +1024,7 @@
         <v>1</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F2" t="s">
         <v>32</v>
@@ -1033,22 +1036,22 @@
         <v>40</v>
       </c>
       <c r="I2" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="L2" s="2" t="s">
         <v>112</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>114</v>
       </c>
       <c r="M2" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -1062,7 +1065,7 @@
         <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F3" t="s">
         <v>33</v>
@@ -1074,19 +1077,19 @@
         <v>41</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -1100,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F4" t="s">
         <v>34</v>
@@ -1112,19 +1115,19 @@
         <v>42</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="L4" s="2" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -1138,7 +1141,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F5" t="s">
         <v>35</v>
@@ -1150,13 +1153,13 @@
         <v>43</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="L5" s="2" t="s">
         <v>45</v>
@@ -1175,56 +1178,56 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:J3"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="22.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="23.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="22.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="23.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.5546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B1" t="s">
         <v>100</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>101</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
+        <v>113</v>
+      </c>
+      <c r="E1" t="s">
+        <v>114</v>
+      </c>
+      <c r="F1" t="s">
+        <v>115</v>
+      </c>
+      <c r="G1" t="s">
+        <v>116</v>
+      </c>
+      <c r="H1" t="s">
+        <v>118</v>
+      </c>
+      <c r="I1" t="s">
         <v>102</v>
-      </c>
-      <c r="D1" t="s">
-        <v>115</v>
-      </c>
-      <c r="E1" t="s">
-        <v>116</v>
-      </c>
-      <c r="F1" t="s">
-        <v>117</v>
-      </c>
-      <c r="G1" t="s">
-        <v>118</v>
-      </c>
-      <c r="H1" t="s">
-        <v>120</v>
-      </c>
-      <c r="I1" t="s">
-        <v>103</v>
       </c>
       <c r="J1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -1235,19 +1238,19 @@
         <v>54</v>
       </c>
       <c r="D2" t="s">
-        <v>58</v>
+        <v>126</v>
       </c>
       <c r="E2" t="s">
-        <v>104</v>
+        <v>127</v>
       </c>
       <c r="F2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="G2" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="H2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="I2" s="3">
         <v>1</v>
@@ -1256,7 +1259,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -1267,16 +1270,16 @@
         <v>55</v>
       </c>
       <c r="D3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E3" t="s">
         <v>59</v>
       </c>
-      <c r="E3" t="s">
-        <v>60</v>
-      </c>
       <c r="F3" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="G3" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="H3" t="s">
         <v>57</v>
@@ -1298,19 +1301,19 @@
       <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.7109375" customWidth="1"/>
-    <col min="3" max="3" width="14.140625" customWidth="1"/>
+    <col min="1" max="1" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.6640625" customWidth="1"/>
+    <col min="3" max="3" width="14.109375" customWidth="1"/>
     <col min="4" max="4" width="14" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="26.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="24.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>12</v>
       </c>
@@ -1327,16 +1330,16 @@
         <v>21</v>
       </c>
       <c r="F1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -1359,7 +1362,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -1385,7 +1388,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -1408,7 +1411,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>16</v>
       </c>
@@ -1443,34 +1446,34 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="37.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="37.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E1" t="s">
         <v>105</v>
       </c>
-      <c r="D1" t="s">
-        <v>106</v>
-      </c>
-      <c r="E1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -1481,13 +1484,13 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -1498,13 +1501,13 @@
         <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -1515,13 +1518,13 @@
         <v>3</v>
       </c>
       <c r="D4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E4" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -1532,13 +1535,13 @@
         <v>4</v>
       </c>
       <c r="D5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E5" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -1549,13 +1552,13 @@
         <v>5</v>
       </c>
       <c r="D6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E6" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -1566,10 +1569,10 @@
         <v>6</v>
       </c>
       <c r="D7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>
